--- a/app/import/data.xlsx
+++ b/app/import/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,42 @@
   <si>
     <t>홍합</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹새우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹홍새우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보리새우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수염새우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국산 두절새우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹새우.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹홍새우.jpg</t>
+  </si>
+  <si>
+    <t>보리새우.jpg</t>
+  </si>
+  <si>
+    <t>수염새우.jpg</t>
+  </si>
+  <si>
+    <t>중국산_두절새우.jpg</t>
   </si>
 </sst>
 </file>
@@ -622,7 +658,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="F3" sqref="F3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -658,10 +694,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -672,10 +708,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -686,10 +722,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -700,10 +736,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -714,10 +750,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">

--- a/app/import/data.xlsx
+++ b/app/import/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="14740" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="27640" yWindow="-9920" windowWidth="24960" windowHeight="14740" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="category" sheetId="1" r:id="rId1"/>
@@ -206,20 +206,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>먹새우.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>먹홍새우.jpg</t>
-  </si>
-  <si>
-    <t>보리새우.jpg</t>
-  </si>
-  <si>
-    <t>수염새우.jpg</t>
-  </si>
-  <si>
-    <t>중국산_두절새우.jpg</t>
+    <t>beard_shrimp.jpg</t>
+  </si>
+  <si>
+    <t>bori_shrimp.jpg</t>
+  </si>
+  <si>
+    <t>china_dujul_shrimp.jpg</t>
+  </si>
+  <si>
+    <t>muk_shrimp.jpg</t>
+  </si>
+  <si>
+    <t>mukhong_shrimp.png</t>
   </si>
 </sst>
 </file>
@@ -658,7 +657,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F6"/>
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -697,7 +696,7 @@
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -711,7 +710,7 @@
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -725,7 +724,7 @@
         <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -739,7 +738,7 @@
         <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -753,7 +752,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">

--- a/app/import/data.xlsx
+++ b/app/import/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>건오징어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>황태, 북어류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,14 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쥐포</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건조개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기타</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,85 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>새우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myulchi.jpg</t>
-  </si>
-  <si>
-    <t>건새우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작은새우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>큰새우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거대새우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건오징어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오징어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>먹태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>북어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황태친구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황황</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노가리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노가리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노가리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쥐포</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>먹새우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,6 +128,260 @@
   </si>
   <si>
     <t>mukhong_shrimp.png</t>
+  </si>
+  <si>
+    <t>건조개살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건피조개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국산건홍합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dry_clam.png</t>
+  </si>
+  <si>
+    <t>korean_dry_honghap.jpg</t>
+  </si>
+  <si>
+    <t>오징어류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥐포,쥐포구이채류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건조개류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내가공 백진미채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내가공 오징어실채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내가공 홍진미채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국산 망족구이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국산 망족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국산오징어 실채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철판구이 스틱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철판구이 통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통족 끝터리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통족 버터구이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페루 망족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>korean_backjinmi.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>korean_hongjinmi.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>korean_mangjok_gui.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>korean_mangjok.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>korean_squidchae.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>korean_squidchae2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>griled_stick.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>griled_tong.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongjok_end.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongjok_butter.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongjok.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peru_mangjok.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용대리 통황태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용대리 황태제사포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용대리 황태채포장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황태 양념무침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tong_hwangtae.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwangtae_jaesapo.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwangtae_chae.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwangtae_muchim.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조미 대구노가리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jomi_nogari.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국산 쥐포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬리 생아구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬리 아구구이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생 아구포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아구구이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양태 구이채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥐포 구이채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>korean_jwipo.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tail_agu_gui.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agu_po.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생 아구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agu_gui.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yangtae.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jwipo_chae.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agu.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tail_agu.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건조개살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건피조개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국산 건홍합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dry_pi_clam.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>korean_dry_honghap.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dry_clam_flesh.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -544,7 +707,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -573,7 +736,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -581,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -589,7 +752,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -597,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -605,7 +768,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,7 +776,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +797,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -654,10 +817,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -665,7 +828,7 @@
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -685,7 +848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -693,13 +856,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -707,13 +870,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -721,13 +884,19 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -735,13 +904,16 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -749,111 +921,117 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -861,13 +1039,13 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -875,13 +1053,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -889,10 +1067,10 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -903,10 +1081,10 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -914,13 +1092,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -931,10 +1109,10 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -945,10 +1123,10 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -959,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -973,10 +1151,10 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -987,10 +1165,10 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -998,13 +1176,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1012,13 +1190,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1029,10 +1207,10 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1040,13 +1218,111 @@
         <v>26</v>
       </c>
       <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
         <v>6</v>
       </c>
-      <c r="D27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" t="s">
-        <v>20</v>
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/app/import/data.xlsx
+++ b/app/import/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,24 +128,6 @@
   </si>
   <si>
     <t>mukhong_shrimp.png</t>
-  </si>
-  <si>
-    <t>건조개살</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건피조개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국산건홍합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dry_clam.png</t>
-  </si>
-  <si>
-    <t>korean_dry_honghap.jpg</t>
   </si>
   <si>
     <t>오징어류</t>
@@ -736,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -760,7 +742,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -768,7 +750,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -817,10 +799,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -828,7 +810,7 @@
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -848,7 +830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -862,7 +844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -876,7 +858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -889,14 +871,8 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -909,11 +885,8 @@
       <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -926,14 +899,8 @@
       <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -941,13 +908,13 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -955,13 +922,13 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -969,13 +936,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -983,13 +950,13 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -997,13 +964,13 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1011,13 +978,13 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1025,13 +992,13 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1039,13 +1006,13 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1053,13 +1020,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1067,10 +1034,10 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1081,10 +1048,10 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1095,10 +1062,10 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1109,10 +1076,10 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1123,10 +1090,10 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1137,10 +1104,10 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1151,10 +1118,10 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1165,10 +1132,10 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1179,10 +1146,10 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1193,10 +1160,10 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1207,10 +1174,10 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1221,10 +1188,10 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1235,10 +1202,10 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1249,10 +1216,10 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1263,10 +1230,10 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1277,10 +1244,10 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1291,10 +1258,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" t="s">
         <v>84</v>
-      </c>
-      <c r="F32" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1305,10 +1272,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1319,10 +1286,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F34" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/app/import/data.xlsx
+++ b/app/import/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27640" yWindow="-9920" windowWidth="24960" windowHeight="14740" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="27640" yWindow="-9920" windowWidth="24960" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="category" sheetId="1" r:id="rId1"/>
@@ -134,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쥐포,쥐포구이채류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>건조개류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,26 +210,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>griled_stick.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>griled_tong.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tongjok_end.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tongjok_butter.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tongjok.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>peru_mangjok.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -363,6 +347,21 @@
   </si>
   <si>
     <t>dry_clam_flesh.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>griled_stick.png</t>
+  </si>
+  <si>
+    <t>tongjok_end.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongjok.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥐포, 쥐포구이채류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -742,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -750,7 +749,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -801,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -908,10 +907,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -922,10 +921,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -936,10 +935,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -950,10 +949,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -964,10 +963,10 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -978,10 +977,10 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -992,10 +991,10 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1006,10 +1005,10 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1020,10 +1019,10 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1034,10 +1033,10 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1048,10 +1047,10 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1062,10 +1061,10 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1076,10 +1075,10 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" t="s">
         <v>53</v>
-      </c>
-      <c r="F19" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1090,10 +1089,10 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
         <v>54</v>
-      </c>
-      <c r="F20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1104,10 +1103,10 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
         <v>55</v>
-      </c>
-      <c r="F21" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1118,10 +1117,10 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" t="s">
         <v>56</v>
-      </c>
-      <c r="F22" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1132,10 +1131,10 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1146,10 +1145,10 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1160,10 +1159,10 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1174,10 +1173,10 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1188,10 +1187,10 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1202,10 +1201,10 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" t="s">
         <v>73</v>
-      </c>
-      <c r="F28" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1216,10 +1215,10 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1230,10 +1229,10 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1244,10 +1243,10 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1258,10 +1257,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1272,10 +1271,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1286,10 +1285,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/app/import/data.xlsx
+++ b/app/import/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27640" yWindow="-9920" windowWidth="24960" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="27640" yWindow="-9920" windowWidth="24960" windowHeight="14740" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="category" sheetId="1" r:id="rId1"/>
@@ -198,26 +198,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>korean_mangjok.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>korean_squidchae.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>korean_squidchae2.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>griled_tong.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tongjok_butter.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>peru_mangjok.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,6 +350,18 @@
   </si>
   <si>
     <t>쥐포, 쥐포구이채류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>korean_mangjok.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>korean_squidchae2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongjok_butter.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -741,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -924,7 +924,7 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -966,7 +966,7 @@
         <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -980,7 +980,7 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -994,7 +994,7 @@
         <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1008,7 +1008,7 @@
         <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1022,7 +1022,7 @@
         <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1036,7 +1036,7 @@
         <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1050,7 +1050,7 @@
         <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1064,7 +1064,7 @@
         <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1075,10 +1075,10 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1089,10 +1089,10 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1103,10 +1103,10 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1117,10 +1117,10 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1131,10 +1131,10 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1145,10 +1145,10 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,10 +1159,10 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1173,10 +1173,10 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1187,10 +1187,10 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1201,10 +1201,10 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1215,10 +1215,10 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1229,10 +1229,10 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1243,10 +1243,10 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1257,10 +1257,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1271,10 +1271,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1285,10 +1285,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/app/import/data.xlsx
+++ b/app/import/data.xlsx
@@ -194,10 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>korean_mangjok_gui.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>korean_squidchae.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,6 +358,10 @@
   </si>
   <si>
     <t>tongjok_butter.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>korean_mangjok_gui.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -741,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -801,7 +801,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -924,7 +924,7 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -952,7 +952,7 @@
         <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -966,7 +966,7 @@
         <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -980,7 +980,7 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -994,7 +994,7 @@
         <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1008,7 +1008,7 @@
         <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1022,7 +1022,7 @@
         <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1036,7 +1036,7 @@
         <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1050,7 +1050,7 @@
         <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1064,7 +1064,7 @@
         <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1075,10 +1075,10 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1089,10 +1089,10 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1103,10 +1103,10 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1117,10 +1117,10 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1131,10 +1131,10 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
         <v>54</v>
-      </c>
-      <c r="F23" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1145,10 +1145,10 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,10 +1159,10 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1173,10 +1173,10 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1187,10 +1187,10 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1201,10 +1201,10 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1215,10 +1215,10 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1229,10 +1229,10 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1243,10 +1243,10 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1257,10 +1257,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1271,10 +1271,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1285,10 +1285,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/app/import/data.xlsx
+++ b/app/import/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27640" yWindow="-9920" windowWidth="24960" windowHeight="14740" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="48980" yWindow="-10040" windowWidth="24960" windowHeight="14740" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="category" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,6 +363,69 @@
   <si>
     <t>korean_mangjok_gui.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가문어 슬라이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가문어 슬라이스(식자재)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹태채(통마리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명엽채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베트남쥐포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북어뼈(육수용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이중채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥐어채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편대구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buke_soup.png</t>
+  </si>
+  <si>
+    <t>ejungchae.png</t>
+  </si>
+  <si>
+    <t>ga_octopus_slice.png</t>
+  </si>
+  <si>
+    <t>ga_octopus_food.png</t>
+  </si>
+  <si>
+    <t>muktae_all.png</t>
+  </si>
+  <si>
+    <t>myoeng_yup_chae.png</t>
+  </si>
+  <si>
+    <t>gwipo_vietnam.png</t>
+  </si>
+  <si>
+    <t>gwia_chae.png</t>
+  </si>
+  <si>
+    <t>pyeon_daegu.png</t>
   </si>
 </sst>
 </file>
@@ -688,7 +751,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -798,10 +861,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1291,6 +1354,132 @@
         <v>75</v>
       </c>
     </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/import/data.xlsx
+++ b/app/import/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,6 +426,62 @@
   </si>
   <si>
     <t>pyeon_daegu.png</t>
+  </si>
+  <si>
+    <t>건과육포스틱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일육포스틱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃보다오징어 10kg(벌크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망장족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오징어육포스틱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈육포스틱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황태부채포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황태채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_youkpo_stick.png</t>
+  </si>
+  <si>
+    <t>fruit_youkpo_stick.png</t>
+  </si>
+  <si>
+    <t>squid_than_flower.png</t>
+  </si>
+  <si>
+    <t>mang_jang_jok.png</t>
+  </si>
+  <si>
+    <t>squid_youkpo_stick.png</t>
+  </si>
+  <si>
+    <t>cheeze_youkpo_stick.png</t>
+  </si>
+  <si>
+    <t>hwang_tae_buchae.png</t>
+  </si>
+  <si>
+    <t>hwang_tae_chae.png</t>
   </si>
 </sst>
 </file>
@@ -861,10 +917,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26:L41"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1480,6 +1536,118 @@
         <v>102</v>
       </c>
     </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/import/data.xlsx
+++ b/app/import/data.xlsx
@@ -428,60 +428,59 @@
     <t>pyeon_daegu.png</t>
   </si>
   <si>
-    <t>건과육포스틱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>꽃보다오징어 10kg(벌크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망장족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오징어육포스틱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈육포스틱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황태부채포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황태채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_youkpo_stick.png</t>
+  </si>
+  <si>
+    <t>fruit_youkpo_stick.png</t>
+  </si>
+  <si>
+    <t>squid_than_flower.png</t>
+  </si>
+  <si>
+    <t>mang_jang_jok.png</t>
+  </si>
+  <si>
+    <t>squid_youkpo_stick.png</t>
+  </si>
+  <si>
+    <t>cheeze_youkpo_stick.png</t>
+  </si>
+  <si>
+    <t>hwang_tae_buchae.png</t>
+  </si>
+  <si>
+    <t>hwang_tae_chae.png</t>
   </si>
   <si>
     <t>과일육포스틱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꽃보다오징어 10kg(벌크)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>망장족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오징어육포스틱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치즈육포스틱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황태부채포</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황태채</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_youkpo_stick.png</t>
-  </si>
-  <si>
-    <t>fruit_youkpo_stick.png</t>
-  </si>
-  <si>
-    <t>squid_than_flower.png</t>
-  </si>
-  <si>
-    <t>mang_jang_jok.png</t>
-  </si>
-  <si>
-    <t>squid_youkpo_stick.png</t>
-  </si>
-  <si>
-    <t>cheeze_youkpo_stick.png</t>
-  </si>
-  <si>
-    <t>hwang_tae_buchae.png</t>
-  </si>
-  <si>
-    <t>hwang_tae_chae.png</t>
+  </si>
+  <si>
+    <t>견과육포스틱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -920,7 +919,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:A51"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1544,10 +1543,10 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1558,10 +1557,10 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1572,10 +1571,10 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F46" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1586,10 +1585,10 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1600,10 +1599,10 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F48" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1614,10 +1613,10 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F49" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1628,10 +1627,10 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1642,10 +1641,10 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/app/import/data.xlsx
+++ b/app/import/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="48980" yWindow="-10040" windowWidth="24960" windowHeight="14740" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="24960" windowHeight="14740" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="category" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -480,6 +480,10 @@
   </si>
   <si>
     <t>견과육포스틱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식자재(저 단가)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -803,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -875,6 +879,14 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -918,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1456,7 +1468,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
         <v>88</v>
@@ -1498,7 +1510,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
         <v>91</v>
@@ -1512,7 +1524,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
         <v>92</v>
@@ -1540,7 +1552,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
         <v>118</v>
@@ -1554,7 +1566,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
         <v>117</v>
@@ -1610,7 +1622,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
         <v>106</v>

--- a/app/import/data.xlsx
+++ b/app/import/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="24960" windowHeight="14740" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="24960" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="category" sheetId="1" r:id="rId1"/>
@@ -809,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -930,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>

--- a/app/import/data.xlsx
+++ b/app/import/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="24960" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="27140" yWindow="-6880" windowWidth="24960" windowHeight="14740" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="category" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="140">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,6 +485,76 @@
   <si>
     <t>식자재(저 단가)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건조개살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내가공 황태채(식자재용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국산참진미 파지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바지락살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버터구이 (페루)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절단북어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조미노가리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참새우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황태찜포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bajirak_sal.png</t>
+  </si>
+  <si>
+    <t>butter_peru.png</t>
+  </si>
+  <si>
+    <t>charm_jinmi.png</t>
+  </si>
+  <si>
+    <t>charm_shrimp.png</t>
+  </si>
+  <si>
+    <t>동전오족 슬라이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_ojok_slice.png</t>
+  </si>
+  <si>
+    <t>cut_buke.jpg</t>
+  </si>
+  <si>
+    <t>gun_clam.png</t>
+  </si>
+  <si>
+    <t>hwangtae_chae_3.png</t>
+  </si>
+  <si>
+    <t>hwangtae_jjimpo.png</t>
+  </si>
+  <si>
+    <t>jomi_nogari.png</t>
   </si>
 </sst>
 </file>
@@ -809,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -901,7 +971,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -928,10 +998,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1440,7 +1510,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
         <v>86</v>
@@ -1468,7 +1538,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
         <v>88</v>
@@ -1510,7 +1580,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
         <v>91</v>
@@ -1524,7 +1594,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
         <v>92</v>
@@ -1657,6 +1727,146 @@
       </c>
       <c r="F51" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>127</v>
+      </c>
+      <c r="F59" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>128</v>
+      </c>
+      <c r="F60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/app/import/data.xlsx
+++ b/app/import/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27140" yWindow="-6880" windowWidth="24960" windowHeight="14740" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="45040" yWindow="-12440" windowWidth="24960" windowHeight="20260" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="category" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="156">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,12 +118,6 @@
     <t>beard_shrimp.jpg</t>
   </si>
   <si>
-    <t>bori_shrimp.jpg</t>
-  </si>
-  <si>
-    <t>china_dujul_shrimp.jpg</t>
-  </si>
-  <si>
     <t>muk_shrimp.jpg</t>
   </si>
   <si>
@@ -262,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아구구이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>양태 구이채</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>agu_gui.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>yangtae.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,9 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>buke_soup.png</t>
-  </si>
-  <si>
     <t>ejungchae.png</t>
   </si>
   <si>
@@ -413,9 +396,6 @@
     <t>ga_octopus_food.png</t>
   </si>
   <si>
-    <t>muktae_all.png</t>
-  </si>
-  <si>
     <t>myoeng_yup_chae.png</t>
   </si>
   <si>
@@ -555,6 +535,81 @@
   </si>
   <si>
     <t>jomi_nogari.png</t>
+  </si>
+  <si>
+    <t>국산 보리새우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃게튀김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매운맛 땅콩버터오징어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오징어 입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오징어 족살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원단쥐포(두툼쥐포)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진미 중가루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agu_gui_5.png</t>
+  </si>
+  <si>
+    <t>bori_shrimp_5.png</t>
+  </si>
+  <si>
+    <t>buke_bone_soup.png</t>
+  </si>
+  <si>
+    <t>duzul_shrimp.png</t>
+  </si>
+  <si>
+    <t>fry_crab.png</t>
+  </si>
+  <si>
+    <t>hot_butter_oqlid.png</t>
+  </si>
+  <si>
+    <t>jinmi_jung.png</t>
+  </si>
+  <si>
+    <t>jwipo_dutum.png</t>
+  </si>
+  <si>
+    <t>korean_bori_shrimp.png</t>
+  </si>
+  <si>
+    <t>oqlid_joksal.png</t>
+  </si>
+  <si>
+    <t>oqlid_mouse.png</t>
+  </si>
+  <si>
+    <t>white_legs.png</t>
+  </si>
+  <si>
+    <t>아구구이M통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muktae_all_rotate.png</t>
   </si>
 </sst>
 </file>
@@ -909,7 +964,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -933,7 +988,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -941,7 +996,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,7 +1004,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -998,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:A61"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1095,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1054,7 +1109,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1068,7 +1123,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1096,7 +1151,7 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1107,10 +1162,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1121,10 +1176,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1135,10 +1190,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1149,10 +1204,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1163,10 +1218,10 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1177,10 +1232,10 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1191,10 +1246,10 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1205,10 +1260,10 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1219,10 +1274,10 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1233,10 +1288,10 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1247,10 +1302,10 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1261,10 +1316,10 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1275,10 +1330,10 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1289,10 +1344,10 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1303,10 +1358,10 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1317,10 +1372,10 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1331,10 +1386,10 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1345,10 +1400,10 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1359,10 +1414,10 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1373,10 +1428,10 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1387,10 +1442,10 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1401,10 +1456,10 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
         <v>65</v>
-      </c>
-      <c r="F28" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1415,10 +1470,10 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1429,10 +1484,10 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1443,10 +1498,10 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1457,10 +1512,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1471,10 +1526,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1485,10 +1540,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,10 +1554,10 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F35" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1513,10 +1568,10 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1527,10 +1582,10 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F37" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1541,10 +1596,10 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F38" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1555,10 +1610,10 @@
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F39" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1569,10 +1624,10 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,10 +1638,10 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1597,10 +1652,10 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F42" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1611,10 +1666,10 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F43" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1625,10 +1680,10 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F44" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1639,10 +1694,10 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F45" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1653,10 +1708,10 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F46" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1667,10 +1722,10 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F47" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1681,10 +1736,10 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F48" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1695,10 +1750,10 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F49" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1709,10 +1764,10 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F50" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1723,10 +1778,10 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F51" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1737,10 +1792,10 @@
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F52" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1751,10 +1806,10 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F53" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1765,10 +1820,10 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F54" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1779,10 +1834,10 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" t="s">
         <v>123</v>
-      </c>
-      <c r="F55" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1793,10 +1848,10 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56" t="s">
         <v>124</v>
-      </c>
-      <c r="F56" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1807,10 +1862,10 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F57" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1821,10 +1876,10 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F58" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1835,10 +1890,10 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F59" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1849,10 +1904,10 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F60" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1863,10 +1918,122 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F61" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
         <v>134</v>
+      </c>
+      <c r="F62" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>135</v>
+      </c>
+      <c r="F63" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>136</v>
+      </c>
+      <c r="F64" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>139</v>
+      </c>
+      <c r="F67" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>140</v>
+      </c>
+      <c r="F68" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>141</v>
+      </c>
+      <c r="F69" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/app/import/data.xlsx
+++ b/app/import/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="160">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -420,10 +420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>치즈육포스틱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>황태부채포</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,12 +428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gun_youkpo_stick.png</t>
-  </si>
-  <si>
-    <t>fruit_youkpo_stick.png</t>
-  </si>
-  <si>
     <t>squid_than_flower.png</t>
   </si>
   <si>
@@ -447,22 +437,12 @@
     <t>squid_youkpo_stick.png</t>
   </si>
   <si>
-    <t>cheeze_youkpo_stick.png</t>
-  </si>
-  <si>
     <t>hwang_tae_buchae.png</t>
   </si>
   <si>
     <t>hwang_tae_chae.png</t>
   </si>
   <si>
-    <t>과일육포스틱</t>
-  </si>
-  <si>
-    <t>견과육포스틱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>식자재(저 단가)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -610,6 +590,44 @@
   </si>
   <si>
     <t>muktae_all_rotate.png</t>
+  </si>
+  <si>
+    <t>견과육포 100g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견과육포 500g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일육포 100g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈육포 100g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈육포 500g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amond_100.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amond_500.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruit_100.png</t>
+  </si>
+  <si>
+    <t>cheeze_100.png</t>
+  </si>
+  <si>
+    <t>cheeze_500.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1004,7 +1022,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1053,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1141,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1151,7 +1169,7 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1470,10 +1488,10 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1585,7 +1603,7 @@
         <v>83</v>
       </c>
       <c r="F37" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1627,7 +1645,7 @@
         <v>86</v>
       </c>
       <c r="F40" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1677,13 +1695,13 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1691,13 +1709,13 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1708,10 +1726,10 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1719,13 +1737,13 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1733,13 +1751,13 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1747,13 +1765,13 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F49" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1761,13 +1779,13 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F50" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1775,13 +1793,13 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F51" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1792,10 +1810,10 @@
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F52" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1803,13 +1821,13 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F53" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1817,13 +1835,13 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F54" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1831,13 +1849,13 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F55" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1845,13 +1863,13 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F56" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1862,10 +1880,10 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F57" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1873,13 +1891,13 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F58" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1890,10 +1908,10 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F59" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1901,13 +1919,13 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F60" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1915,13 +1933,13 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F61" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1929,13 +1947,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F62" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1943,10 +1961,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F63" t="s">
         <v>146</v>
@@ -1960,10 +1978,10 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F64" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1971,13 +1989,13 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F65" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1988,10 +2006,10 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F66" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1999,13 +2017,13 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="F67" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2013,13 +2031,13 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="F68" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2027,13 +2045,41 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F69" t="s">
-        <v>148</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>153</v>
+      </c>
+      <c r="F70" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>154</v>
+      </c>
+      <c r="F71" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/app/import/data.xlsx
+++ b/app/import/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="45040" yWindow="-12440" windowWidth="24960" windowHeight="20260" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="24960" windowHeight="15460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="category" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="162">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -628,6 +628,13 @@
   <si>
     <t>cheeze_500.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국산 홍새우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong_shrimp.png</t>
   </si>
 </sst>
 </file>
@@ -1071,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2048,10 +2055,10 @@
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F69" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2062,10 +2069,10 @@
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F70" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2076,10 +2083,24 @@
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F71" t="s">
-        <v>159</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>160</v>
+      </c>
+      <c r="F72" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/app/import/data.xlsx
+++ b/app/import/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="164">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -635,6 +635,13 @@
   </si>
   <si>
     <t>hong_shrimp.png</t>
+  </si>
+  <si>
+    <t>charm_squid.png</t>
+  </si>
+  <si>
+    <t>구운 참스틱오징어 10kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1078,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2103,6 +2110,20 @@
         <v>161</v>
       </c>
     </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>163</v>
+      </c>
+      <c r="F73" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
